--- a/plantillas/RegistroVentas.xlsx
+++ b/plantillas/RegistroVentas.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USAT\2024-2\calidad\GOTA_A_GOTA\grupogota_servidor\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A20D92-0386-443B-9A84-CA769290BF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CB6241-51A8-4DB5-91DA-E369E6021F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="609"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F 14.1 Reg. de Ventas" sheetId="3" r:id="rId1"/>
@@ -22,15 +22,6 @@
     <definedName name="VENCII">[1]CRONOGRAMA!$C$83:$D$452</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -235,16 +226,16 @@
     <t xml:space="preserve">          O DOCUMENTO ORIGINAL QUE SE MODIFICA</t>
   </si>
   <si>
-    <t xml:space="preserve">             TOTALES</t>
+    <t>TOTALES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="185" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="208" formatCode="dd\-mm\-yy"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yy"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -254,6 +245,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -445,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -453,33 +445,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -512,7 +484,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -576,28 +547,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="208" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,6 +561,19 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3950,14 +3916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4022,622 +3988,382 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="33" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="47" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="30" t="s">
+      <c r="M7" s="45"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="47"/>
-      <c r="S7" s="33" t="s">
+      <c r="R7" s="38"/>
+      <c r="S7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
     </row>
     <row r="8" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="26" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="31" t="s">
+      <c r="M8" s="46"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="57" t="s">
+      <c r="S8" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
     </row>
     <row r="9" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="71" t="s">
+      <c r="F9" s="32"/>
+      <c r="G9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="30" t="s">
+      <c r="H9" s="60"/>
+      <c r="I9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="26" t="s">
+      <c r="L9" s="10"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="23" t="s">
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
     </row>
     <row r="10" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="31" t="s">
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="31" t="s">
+      <c r="Q10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="S10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="T10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="V10" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="42" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="40" t="s">
+      <c r="H11" s="33"/>
+      <c r="I11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="37" t="s">
+      <c r="J11" s="19"/>
+      <c r="K11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="40" t="s">
+      <c r="L11" s="53"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="40" t="s">
+      <c r="Q11" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="56"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="20" t="s">
+      <c r="R11" s="47"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="59"/>
-      <c r="V11" s="42" t="s">
+      <c r="U11" s="50"/>
+      <c r="V11" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="19"/>
+    <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
     </row>
-    <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="19"/>
+    <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="19"/>
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="19"/>
-    </row>
-    <row r="16" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="19"/>
-    </row>
-    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="19"/>
-    </row>
-    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="19"/>
-    </row>
-    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="19"/>
-    </row>
-    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="18"/>
-    </row>
-    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="18"/>
-    </row>
-    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="18"/>
-    </row>
-    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-    </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/plantillas/RegistroVentas.xlsx
+++ b/plantillas/RegistroVentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USAT\2024-2\calidad\GOTA_A_GOTA\grupogota_servidor\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CB6241-51A8-4DB5-91DA-E369E6021F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9BAA4C-C3EC-4F5E-B77B-81E1DCE00008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -561,9 +561,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3920,10 +3917,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4139,10 +4136,10 @@
         <v>35</v>
       </c>
       <c r="F9" s="32"/>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="60"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="22" t="s">
         <v>37</v>
       </c>
@@ -4300,70 +4297,46 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/plantillas/RegistroVentas.xlsx
+++ b/plantillas/RegistroVentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USAT\2024-2\calidad\GOTA_A_GOTA\grupogota_servidor\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9BAA4C-C3EC-4F5E-B77B-81E1DCE00008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62996B6-A342-4F5E-9377-BCAB6E71E9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>ISC</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>TOTALES</t>
+  </si>
+  <si>
+    <t>DECO ELERA S.A.C.</t>
   </si>
 </sst>
 </file>
@@ -3919,8 +3922,8 @@
   </sheetPr>
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3970,7 +3973,9 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6">
+        <v>20612188930</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -3981,7 +3986,9 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.25">

--- a/plantillas/RegistroVentas.xlsx
+++ b/plantillas/RegistroVentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USAT\2024-2\calidad\GOTA_A_GOTA\grupogota_servidor\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62996B6-A342-4F5E-9377-BCAB6E71E9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E0E875-8BDD-4BE2-B331-7C8B225D1451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="609" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>ISC</t>
   </si>
@@ -64,183 +64,68 @@
     <t>FORMATO 14.1: REGISTRO DE VENTAS E INGRESOS</t>
   </si>
   <si>
-    <t xml:space="preserve">     NÚMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        FECHA DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   CORRELATIVO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EMISIÓN DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DEL REGISTRO O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COMPROBANTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   CÓDIGO UNICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          DE PAGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    O DOCUMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   VENCIMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Y/O PAGO</t>
-  </si>
-  <si>
-    <t>(TABLA 10)</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>DE LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                              O DOCUMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       COMPROBANTE DE PAGO</t>
-  </si>
-  <si>
-    <t>(TABLA 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      N° DE SERIE DE LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       INFORMACIÓN DEL CLIENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MAQUINA REGISTRADORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              N° SERIE O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         DENOMINACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> APELLIDOS Y NOMBRES,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        O RAZÓN SOCIAL</t>
-  </si>
-  <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>FACTURADO</t>
-  </si>
-  <si>
-    <t>EXPORTACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        BASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    IMPONIBLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         DE LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       GRAVADA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       EXONERADA O INAFECTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IMPORTE TOTAL DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  OTROS TRIBUTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Y CARGOS QUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NO FORMAN PARTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            DE LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BASE IMPONIBLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        IMPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          TOTAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  COMPROBANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DE PAGO</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>CAMBIO</t>
-  </si>
-  <si>
-    <t>N° DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPROBANTE </t>
-  </si>
-  <si>
-    <t>DE PAGO O DOCUMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          REFERENCIA DEL COMPROBANTE DE PAGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          O DOCUMENTO ORIGINAL QUE SE MODIFICA</t>
-  </si>
-  <si>
     <t>TOTALES</t>
   </si>
   <si>
     <t>DECO ELERA S.A.C.</t>
+  </si>
+  <si>
+    <t>NÚMERO CORRELATIVO DEL REGISTRO O CÓDIGO ÚNICO DE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE EMISIÓN DEL COMPROBANTE DE PAGO O DOCUMENTO</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO Y/O PAGO</t>
+  </si>
+  <si>
+    <t>TIPO (TABLA 10)</t>
+  </si>
+  <si>
+    <t>N° SERIE O N° DE SERIE DE LA MAQUINA REGISTRADORA</t>
+  </si>
+  <si>
+    <t>COMPROBANTE DE PAGO O DOCUMENTO</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN DEL CLIENTE</t>
+  </si>
+  <si>
+    <t>TIPO (TABLA 2)</t>
+  </si>
+  <si>
+    <t>APELLIDOS Y NOMBRES, DENOMINACIÓN O RAZÓN SOCIAL</t>
+  </si>
+  <si>
+    <t>VALOR FACTURADO DE LA EXPORTACIÓN</t>
+  </si>
+  <si>
+    <t>BASE IMPONIBLE DE LA OPERACIÓN GRAVADA</t>
+  </si>
+  <si>
+    <t>IMPORTE TOTAL DE LA OPERACIÓN EXONERADA O INAFECTA</t>
+  </si>
+  <si>
+    <t>OTROS TRIBUTOS Y CARGOS QUE NO FORMAN PARTE DE LA BASE IMPONIBLE</t>
+  </si>
+  <si>
+    <t>IMPORTE TOTAL DEL COMPROBANTE DE PAGO</t>
+  </si>
+  <si>
+    <t>TIPO DE CAMBIO</t>
+  </si>
+  <si>
+    <t>N° DEL COMPROBANTE DE PAGO O DOCUMENTO</t>
+  </si>
+  <si>
+    <t>REFERENCIA DEL COMPROBANTE DE PAGO O DOCUMENTO ORIGINAL QUE SE MODIFICA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yy"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -290,11 +175,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -420,16 +300,18 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -440,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -453,118 +335,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,6 +351,72 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3922,8 +3760,8 @@
   </sheetPr>
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3973,7 +3811,7 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="18">
         <v>20612188930</v>
       </c>
       <c r="C4" s="6"/>
@@ -3986,8 +3824,8 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>67</v>
+      <c r="E5" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -4011,50 +3849,56 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>12</v>
+      <c r="A7" s="19" t="s">
+        <v>14</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>13</v>
+      <c r="B7" s="22" t="s">
+        <v>15</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="R7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="42"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="35"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
@@ -4070,50 +3914,28 @@
       <c r="AI7" s="9"/>
     </row>
     <row r="8" spans="1:35" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="44"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="37"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
@@ -4129,55 +3951,49 @@
       <c r="AI8" s="9"/>
     </row>
     <row r="9" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="20" t="s">
-        <v>35</v>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26" t="s">
+        <v>9</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="58" t="s">
-        <v>4</v>
+      <c r="M9" s="26" t="s">
+        <v>10</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="22" t="s">
-        <v>37</v>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26" t="s">
+        <v>7</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>26</v>
+      <c r="T9" s="26" t="s">
+        <v>17</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>44</v>
+      <c r="U9" s="26" t="s">
+        <v>8</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="15" t="s">
-        <v>61</v>
+      <c r="V9" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -4194,142 +4010,84 @@
       <c r="AI9" s="9"/>
     </row>
     <row r="10" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>18</v>
+      <c r="A10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26" t="s">
+        <v>21</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="H10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
     </row>
-    <row r="11" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="53"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="47"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="50"/>
-      <c r="V11" s="33" t="s">
-        <v>63</v>
-      </c>
+    <row r="11" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56" t="s">
-        <v>66</v>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14" t="s">
+        <v>12</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -4346,8 +4104,34 @@
       <c r="M14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="27">
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="S7:V8"/>
+    <mergeCell ref="N7:N11"/>
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="P7:P11"/>
+    <mergeCell ref="Q7:Q11"/>
+    <mergeCell ref="R7:R11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
